--- a/Control_De_Acceso_de_Microcontroladores/Historia de Usuarios/HistoriaUsuario_03_06_2019.xlsx
+++ b/Control_De_Acceso_de_Microcontroladores/Historia de Usuarios/HistoriaUsuario_03_06_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul\Documents\Control_De_Acceso_de_Microcontroladores\Historia de Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlanArturo\Documents\GitHub\Punto-de-Acceso\Control_De_Acceso_de_Microcontroladores\Historia de Usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
   <si>
     <t>Historias de usuario y criterios de aceptación: Instructivo</t>
   </si>
@@ -228,19 +228,7 @@
     <t>Pruebas de Integración</t>
   </si>
   <si>
-    <t xml:space="preserve">Modificar Usuario </t>
-  </si>
-  <si>
     <t>Docente</t>
-  </si>
-  <si>
-    <t>Después de haber capturado al usuario, si hay que modificar algún dato seleccionar editar, luego modificar el atributo correspondiente</t>
-  </si>
-  <si>
-    <t>Dato erróneo en el registro de usuario, Resultado: Correctivo</t>
-  </si>
-  <si>
-    <t>Regresar valores en los atributos</t>
   </si>
   <si>
     <t>Al seleccionar editar, redirecciona a la vista de editar usuario, donde los valores asignados aparecerán, para seleccionar el atributo a modificar sin alterar a los demás campos</t>
@@ -252,25 +240,10 @@
     <t>Cuando el Docente está en la vista "editar usuario" y modifique el campo deseado, selecciona guardar, para cambiar el/los datos.</t>
   </si>
   <si>
-    <t>Atributos Vacíos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al seleccionar editar y estar en la vista, desplegará un mensaje advirtiendo si deja un campo vacío al estar haciendo cambios </t>
-  </si>
-  <si>
-    <t>Cuando el Docente está en la vista "editar usuario" y modifique campos, por error deje alguno vacío.</t>
-  </si>
-  <si>
     <t>Borrar Usuario</t>
   </si>
   <si>
-    <t>Después de haber capturado al usuario, si hay que borrar algún dato seleccionar eliminar.</t>
-  </si>
-  <si>
     <t>Eliminar un dato que ya no necesitemos para no tener datos innecesarios.</t>
-  </si>
-  <si>
-    <t>Eliminar datos</t>
   </si>
   <si>
     <t>Al seleccionar eliminar, aparecerá una ventana donde dira si esta seguro de eliminar la información, se deberá seleccionar "aceptar o cancelar" dependiendo de lo que se desea hacer.</t>
@@ -282,106 +255,16 @@
     <t xml:space="preserve">Elimina la información dentro de la base de datos </t>
   </si>
   <si>
-    <t>Cuando se seleccione el botón de cancelar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se cerrará la ventana </t>
-  </si>
-  <si>
-    <t>Agregar Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se agregaran a todos los usuarios al sistema con sus datos </t>
-  </si>
-  <si>
-    <t>Tener a todos los usuarios agregados</t>
-  </si>
-  <si>
-    <t>Agregar datos</t>
-  </si>
-  <si>
-    <t>Agregar un nuevo  usuario en caso de ser necesario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si un usuario no se agrega correctamente se mostrara un mensaje.  </t>
-  </si>
-  <si>
-    <t>El sistema tendrá a todos los usuarios agregados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada docente  se registrará según  la clave de la materia  que esté impartiendo al momento de  entrar al laboratorio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrarse en el sistema </t>
-  </si>
-  <si>
-    <t>Registrarse  con la clave de la materia</t>
-  </si>
-  <si>
-    <t>Al momento de loguearse  el docente se dará  de alta   la materia en el sistema junto con el grupo de alumnos  con el que ingresara  al laboratorio</t>
-  </si>
-  <si>
     <t>Al momento de ingresar  al laboratorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al momento de entrar al laboratorio  </t>
-  </si>
-  <si>
-    <t>Mostrar Usuario</t>
   </si>
   <si>
     <t>Docentes, Alumnos</t>
   </si>
   <si>
-    <t>Se Mostrarán los datos capturados en una Tabla de los Usuarios: 'Docente' y 'Alumno' en la vista Usuarios</t>
-  </si>
-  <si>
-    <t>Mostrar los datos</t>
-  </si>
-  <si>
-    <t>Mostrar los Alumnos registrados</t>
-  </si>
-  <si>
-    <t>Se mostrara los usuarios que entraron y salieron  ademas de que tambien se motrara el motivo del acceso (practica, consulta o clase)</t>
-  </si>
-  <si>
-    <t>Al entrar en alguna vista principal del sistema como:  Usuarios, Registros</t>
-  </si>
-  <si>
     <t>Mostrar los alumnos  registrados en el punto  de acceso</t>
   </si>
   <si>
-    <t>Generar reporte general excel</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>se creara un documento cvs donde se mostraran los datos optenitos en la clase, practica o consultas relizadas en el laboratorio de microcontroladores.</t>
-  </si>
-  <si>
-    <t>Reporte de datos</t>
-  </si>
-  <si>
-    <t>Generar reporte de la entrada y salida  del alumno</t>
-  </si>
-  <si>
-    <t>Se generara un reporte en excel sobre las entradas y salidas de los alumnos en  el laboratiorio de micreocontroladores</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> en un boton donde diga Generar Excel</t>
-  </si>
-  <si>
-    <t>Generar reporte  de la entrada y salida   del laboratorio  de microcontroladores</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Este apartado se encuentra en el documento SAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller, Vista, Base de datos </t>
   </si>
   <si>
     <t>1 Historias de usuario agregar  estan en el documento de  casos de prueba</t>
@@ -390,13 +273,7 @@
     <t>Las pruebas de integarcion se ralizaon con el sofware Jenkins</t>
   </si>
   <si>
-    <t>Controller, Vista, Base de datos</t>
-  </si>
-  <si>
     <t>1 Historias de usuario borrar  estan en el documento de  casos de prueba</t>
-  </si>
-  <si>
-    <t>2 Historias de usuario borrar  estan en el documento de  casos de prueba</t>
   </si>
   <si>
     <t>3 Historias de usuario login  estan en el documento de  casos de prueba</t>
@@ -410,12 +287,144 @@
   <si>
     <t>3 Historias de usuario mostrar estan en el documento de  casos de prueba</t>
   </si>
+  <si>
+    <t>edit.blade.php, edit.UsuarioController,update.UsuarioController</t>
+  </si>
+  <si>
+    <t>Modificar Usuario</t>
+  </si>
+  <si>
+    <t>Actualizar atributos en la Base de Datos</t>
+  </si>
+  <si>
+    <t>Caracteres Invalidos</t>
+  </si>
+  <si>
+    <t>Aceptacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al seleccionar editar y estar en la vista, desplegará un mensaje advirtiendo que esta ingresando caracteres invalidos en la entrada </t>
+  </si>
+  <si>
+    <t>Mostrar mensaje "Caracteres Invalidos" en la entrada</t>
+  </si>
+  <si>
+    <t>1-Modificar_Usr</t>
+  </si>
+  <si>
+    <t>2-Del_Usr</t>
+  </si>
+  <si>
+    <t>destroy.UsuarioController</t>
+  </si>
+  <si>
+    <t>3-Add_Usr</t>
+  </si>
+  <si>
+    <t>Agregar Ususario</t>
+  </si>
+  <si>
+    <t>Registrar nuevo Usuario en la Base de Datos</t>
+  </si>
+  <si>
+    <t>Ir a la vista Agregar, aparece un formulario para llenar, al final de llenar los campos dar click en el boton Guardar</t>
+  </si>
+  <si>
+    <t>Se inserta un nuevo registro en la tabla user_i_t_s_z_o_s</t>
+  </si>
+  <si>
+    <t>Al seleccionar el boton agregar en la vista de usuarios</t>
+  </si>
+  <si>
+    <t>store.UsuariosController</t>
+  </si>
+  <si>
+    <t>Al estar llenando el formulario ingresar caracteres invalidos en alguna entrada.</t>
+  </si>
+  <si>
+    <t>No Autentificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar Usuario (E-mail) y Contraseña y presionar el boton Sign In </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al loggearse correctamente el sistema lo redirigira a la vista Home  </t>
+  </si>
+  <si>
+    <t>web.php, index.HomeController, auth.login</t>
+  </si>
+  <si>
+    <t>Ingresar Usuario (E-mail) o Contraseña  incorrecto o no haberlo registrado anteriormente.</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje "auth.failed", volver a intentarlo.</t>
+  </si>
+  <si>
+    <t>Excepcion</t>
+  </si>
+  <si>
+    <t>Ingresar Usuario (E-mail) o Contraseña  incorrecto mas de 5 veces.</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje "auth.throttle", volver a intentarlo en 30 segundos.</t>
+  </si>
+  <si>
+    <t>4-Login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Entrar al Sistema para registrar entrada</t>
+  </si>
+  <si>
+    <t>Mostar Usuario</t>
+  </si>
+  <si>
+    <t>5-Show_Usr</t>
+  </si>
+  <si>
+    <t>Mostrar los datos capturados en la tabla user_i_t_s_z_o_s</t>
+  </si>
+  <si>
+    <t>Se mostraran los datos registrados de la tabla user_i_t_s_z_o_s en la vista Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al entrar a la vista Usuarios </t>
+  </si>
+  <si>
+    <t>index.UsuarioController,UserITSZO,Model</t>
+  </si>
+  <si>
+    <t>6-Excel</t>
+  </si>
+  <si>
+    <t>Docentes, Jefe de Carrera.</t>
+  </si>
+  <si>
+    <t>Generar Reporte en Excel</t>
+  </si>
+  <si>
+    <t>Reporte de datos registrados de Accesos al Laboratorio</t>
+  </si>
+  <si>
+    <t>En la vista principal del Sistema (Home) esta un apartado de Excel donse esta un boton para generar el reporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al generar Reporte en Excel de Accesos</t>
+  </si>
+  <si>
+    <t>Se genera un Archivo Excel con el nombre "BD-Registros.xlsx" para descargar en el navegador.</t>
+  </si>
+  <si>
+    <t>ExcelController,RegistrosExport.php.Exports</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -503,12 +512,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -516,7 +519,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,8 +550,14 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECD002"/>
+        <bgColor rgb="FF1F497D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -726,24 +735,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -779,9 +775,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -807,19 +800,10 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,9 +824,23 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,36 +856,65 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFECD002"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1195,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1241,7 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="38.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="15" max="26" width="10" customWidth="1"/>
@@ -1280,12 +1307,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="K3" s="1"/>
@@ -1309,10 +1336,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1422,24 +1449,24 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="53" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="44" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1509,44 +1536,44 @@
     </row>
     <row r="10" spans="1:26" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>67</v>
+      <c r="D10" s="45" t="s">
+        <v>87</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>69</v>
+      <c r="E10" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1563,36 +1590,36 @@
     </row>
     <row r="11" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>116</v>
+      <c r="K11" s="17" t="s">
+        <v>78</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>117</v>
+      <c r="L11" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1637,44 +1664,44 @@
     </row>
     <row r="13" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="42" t="s">
-        <v>77</v>
+      <c r="B13" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>67</v>
+      <c r="C13" s="45" t="s">
+        <v>66</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="54">
+        <v>1</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>79</v>
+      <c r="L13" s="54" t="s">
+        <v>95</v>
       </c>
-      <c r="F13" s="17">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="M13" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>119</v>
+      <c r="N13" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1691,37 +1718,19 @@
     </row>
     <row r="14" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1736,73 +1745,73 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="29"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="27" t="s">
-        <v>86</v>
+      <c r="B16" s="59" t="s">
+        <v>96</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>67</v>
+      <c r="C16" s="54" t="s">
+        <v>66</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>87</v>
+      <c r="D16" s="54" t="s">
+        <v>97</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>88</v>
+      <c r="E16" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>116</v>
+      <c r="K16" s="61" t="s">
+        <v>78</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>120</v>
+      <c r="L16" s="61" t="s">
+        <v>102</v>
       </c>
-      <c r="M16" s="36" t="s">
-        <v>124</v>
+      <c r="M16" s="32" t="s">
+        <v>83</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>119</v>
+      <c r="N16" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1817,267 +1826,321 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+    <row r="17" spans="1:26" s="34" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="29">
+        <v>2</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+    </row>
+    <row r="18" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+    </row>
+    <row r="19" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>67</v>
+      <c r="F19" s="11">
+        <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>93</v>
+      <c r="G19" s="11" t="s">
+        <v>90</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>94</v>
+      <c r="H19" s="11" t="s">
+        <v>105</v>
       </c>
-      <c r="F18" s="11">
-        <v>4</v>
+      <c r="I19" s="11" t="s">
+        <v>75</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>95</v>
+      <c r="J19" s="11" t="s">
+        <v>106</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>96</v>
+      <c r="K19" s="17" t="s">
+        <v>78</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>97</v>
+      <c r="L19" s="61" t="s">
+        <v>107</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>98</v>
+      <c r="M19" s="33" t="s">
+        <v>82</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="N19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" s="34" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+    </row>
+    <row r="21" spans="1:26" s="34" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="29">
+        <v>3</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+    </row>
+    <row r="23" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="E23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="38" t="s">
-        <v>123</v>
+      <c r="J23" s="11" t="s">
+        <v>77</v>
       </c>
-      <c r="N18" s="38" t="s">
-        <v>119</v>
+      <c r="K23" s="17" t="s">
+        <v>78</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="30" t="s">
-        <v>99</v>
+      <c r="L23" s="61" t="s">
+        <v>121</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>100</v>
+      <c r="M23" s="33" t="s">
+        <v>85</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>101</v>
+      <c r="N23" s="13" t="s">
+        <v>80</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="11">
-        <v>5</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="33">
-        <v>6</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2091,49 +2154,75 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="B25" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="29">
+        <v>1</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2149,15 +2238,15 @@
     </row>
     <row r="26" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="13"/>
@@ -2177,15 +2266,15 @@
     </row>
     <row r="27" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
@@ -2205,19 +2294,19 @@
     </row>
     <row r="28" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2233,19 +2322,19 @@
     </row>
     <row r="29" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2261,19 +2350,19 @@
     </row>
     <row r="30" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2289,15 +2378,15 @@
     </row>
     <row r="31" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -2317,15 +2406,15 @@
     </row>
     <row r="32" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -2345,15 +2434,15 @@
     </row>
     <row r="33" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -2373,15 +2462,15 @@
     </row>
     <row r="34" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -2399,21 +2488,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2427,21 +2516,21 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2455,21 +2544,21 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2485,15 +2574,15 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2513,15 +2602,15 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2541,15 +2630,15 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2569,15 +2658,15 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2597,15 +2686,15 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2625,15 +2714,15 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2653,15 +2742,15 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2681,15 +2770,15 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2709,15 +2798,15 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2737,15 +2826,15 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2765,15 +2854,15 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2793,15 +2882,15 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2821,15 +2910,15 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2849,15 +2938,15 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2877,15 +2966,15 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2905,15 +2994,15 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2933,15 +3022,15 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -2961,15 +3050,15 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -2989,15 +3078,15 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3017,15 +3106,15 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3045,15 +3134,15 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3073,15 +3162,15 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3101,15 +3190,15 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3129,15 +3218,15 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3157,15 +3246,15 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3185,15 +3274,15 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3213,15 +3302,15 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3241,15 +3330,15 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3269,15 +3358,15 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3297,15 +3386,15 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -7607,9 +7696,90 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+    </row>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+    </row>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+    </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8387,13 +8557,21 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
+  <mergeCells count="31">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B13:B14"/>
@@ -8403,6 +8581,18 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15078,18 +15268,18 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="53" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -15155,16 +15345,16 @@
     </row>
     <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="8">
@@ -15201,10 +15391,10 @@
     </row>
     <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="8">
         <v>2</v>
       </c>
@@ -15239,10 +15429,10 @@
     </row>
     <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
         <v>43</v>
@@ -15275,10 +15465,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="8"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
